--- a/CKB/Orga Studie/Plattenbelegungsplan_Bridging.xlsx
+++ b/CKB/Orga Studie/Plattenbelegungsplan_Bridging.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DKFZ structure\CKB\Orga Studie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DKFZ Project Amuse\CKB\Orga Studie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="208">
   <si>
     <t>study</t>
   </si>
@@ -642,6 +642,12 @@
   </si>
   <si>
     <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
   </si>
 </sst>
 </file>
@@ -724,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,6 +791,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T193"/>
+  <dimension ref="A1:T385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7611,6 +7618,6144 @@
         <v>44337</v>
       </c>
     </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>7</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D195">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+      <c r="H195" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+      <c r="J195" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="B196" t="s">
+        <v>109</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D196">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+      <c r="H196" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+      <c r="H197" t="s">
+        <v>10</v>
+      </c>
+      <c r="I197">
+        <v>3</v>
+      </c>
+      <c r="J197" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D198">
+        <v>9</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>11</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199">
+        <v>6</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>113</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200">
+        <v>7</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>114</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D201">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201">
+        <v>8</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+      <c r="J201" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>115</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202">
+        <v>9</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="H202" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>116</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203">
+        <v>9</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203">
+        <v>10</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="J203" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>117</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D204">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204">
+        <v>11</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+      <c r="H204" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>118</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205">
+        <v>12</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>119</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <v>13</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206">
+        <v>3</v>
+      </c>
+      <c r="J206" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207">
+        <v>14</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>15</v>
+      </c>
+      <c r="B208" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208">
+        <v>15</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208" t="s">
+        <v>21</v>
+      </c>
+      <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>16</v>
+      </c>
+      <c r="B209" t="s">
+        <v>122</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D209">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209">
+        <v>16</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>17</v>
+      </c>
+      <c r="B210" t="s">
+        <v>123</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210">
+        <v>17</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210" t="s">
+        <v>23</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>124</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211">
+        <v>18</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>24</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>125</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212">
+        <v>19</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+      <c r="H212" t="s">
+        <v>25</v>
+      </c>
+      <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="J212" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>20</v>
+      </c>
+      <c r="B213" t="s">
+        <v>126</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213">
+        <v>20</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+      <c r="H213" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>21</v>
+      </c>
+      <c r="B214" t="s">
+        <v>127</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>21</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214" t="s">
+        <v>27</v>
+      </c>
+      <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>22</v>
+      </c>
+      <c r="B215" t="s">
+        <v>128</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215" t="s">
+        <v>28</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>23</v>
+      </c>
+      <c r="B216" t="s">
+        <v>129</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216">
+        <v>23</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+      <c r="H216" t="s">
+        <v>29</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>24</v>
+      </c>
+      <c r="B217" t="s">
+        <v>130</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217" t="s">
+        <v>30</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>25</v>
+      </c>
+      <c r="B218" t="s">
+        <v>131</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218" t="s">
+        <v>31</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>26</v>
+      </c>
+      <c r="B219" t="s">
+        <v>132</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219">
+        <v>26</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219" t="s">
+        <v>32</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+      <c r="J219" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>27</v>
+      </c>
+      <c r="B220" t="s">
+        <v>133</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220">
+        <v>27</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220" t="s">
+        <v>33</v>
+      </c>
+      <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>28</v>
+      </c>
+      <c r="B221" t="s">
+        <v>134</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+      <c r="H221" t="s">
+        <v>34</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>29</v>
+      </c>
+      <c r="B222" t="s">
+        <v>135</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222">
+        <v>29</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222" t="s">
+        <v>35</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>30</v>
+      </c>
+      <c r="B223" t="s">
+        <v>136</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223">
+        <v>30</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223" t="s">
+        <v>36</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>31</v>
+      </c>
+      <c r="B224" t="s">
+        <v>137</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224">
+        <v>31</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+      <c r="H224" t="s">
+        <v>37</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>32</v>
+      </c>
+      <c r="B225" t="s">
+        <v>138</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225">
+        <v>32</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" t="s">
+        <v>38</v>
+      </c>
+      <c r="I225">
+        <v>3</v>
+      </c>
+      <c r="J225" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>33</v>
+      </c>
+      <c r="B226" t="s">
+        <v>139</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226">
+        <v>33</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>39</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>34</v>
+      </c>
+      <c r="B227" t="s">
+        <v>140</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227">
+        <v>34</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+      <c r="H227" t="s">
+        <v>40</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>35</v>
+      </c>
+      <c r="B228" t="s">
+        <v>141</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228">
+        <v>35</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228" t="s">
+        <v>41</v>
+      </c>
+      <c r="I228">
+        <v>3</v>
+      </c>
+      <c r="J228" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>36</v>
+      </c>
+      <c r="B229" t="s">
+        <v>142</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229">
+        <v>36</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+      <c r="H229" t="s">
+        <v>42</v>
+      </c>
+      <c r="I229">
+        <v>3</v>
+      </c>
+      <c r="J229" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>37</v>
+      </c>
+      <c r="B230" t="s">
+        <v>143</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230">
+        <v>37</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+      <c r="H230" t="s">
+        <v>43</v>
+      </c>
+      <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>38</v>
+      </c>
+      <c r="B231" t="s">
+        <v>144</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231">
+        <v>38</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+      <c r="H231" t="s">
+        <v>44</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>39</v>
+      </c>
+      <c r="B232" t="s">
+        <v>145</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D232">
+        <v>9</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+      <c r="F232">
+        <v>39</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+      <c r="H232" t="s">
+        <v>45</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+      <c r="J232" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>40</v>
+      </c>
+      <c r="B233" t="s">
+        <v>146</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D233">
+        <v>9</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233">
+        <v>40</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233" t="s">
+        <v>46</v>
+      </c>
+      <c r="I233">
+        <v>3</v>
+      </c>
+      <c r="J233" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>41</v>
+      </c>
+      <c r="B234" t="s">
+        <v>147</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D234">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234">
+        <v>41</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+      <c r="H234" t="s">
+        <v>47</v>
+      </c>
+      <c r="I234">
+        <v>3</v>
+      </c>
+      <c r="J234" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>42</v>
+      </c>
+      <c r="B235" t="s">
+        <v>148</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D235">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235">
+        <v>42</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+      <c r="H235" t="s">
+        <v>48</v>
+      </c>
+      <c r="I235">
+        <v>3</v>
+      </c>
+      <c r="J235" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>43</v>
+      </c>
+      <c r="B236" t="s">
+        <v>149</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D236">
+        <v>9</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+      <c r="F236">
+        <v>43</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236" t="s">
+        <v>49</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+      <c r="J236" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>44</v>
+      </c>
+      <c r="B237" t="s">
+        <v>150</v>
+      </c>
+      <c r="C237" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D237">
+        <v>9</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+      <c r="F237">
+        <v>44</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+      <c r="H237" t="s">
+        <v>50</v>
+      </c>
+      <c r="I237">
+        <v>3</v>
+      </c>
+      <c r="J237" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>45</v>
+      </c>
+      <c r="B238" t="s">
+        <v>151</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238">
+        <v>45</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+      <c r="H238" t="s">
+        <v>51</v>
+      </c>
+      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="J238" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>46</v>
+      </c>
+      <c r="B239" t="s">
+        <v>152</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D239">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239">
+        <v>46</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+      <c r="H239" t="s">
+        <v>52</v>
+      </c>
+      <c r="I239">
+        <v>3</v>
+      </c>
+      <c r="J239" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>47</v>
+      </c>
+      <c r="B240" t="s">
+        <v>153</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D240">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240">
+        <v>47</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240" t="s">
+        <v>53</v>
+      </c>
+      <c r="I240">
+        <v>3</v>
+      </c>
+      <c r="J240" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>48</v>
+      </c>
+      <c r="B241" t="s">
+        <v>154</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D241">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241">
+        <v>48</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="H241" t="s">
+        <v>54</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>49</v>
+      </c>
+      <c r="B242" t="s">
+        <v>155</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D242">
+        <v>9</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242">
+        <v>49</v>
+      </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+      <c r="H242" t="s">
+        <v>55</v>
+      </c>
+      <c r="I242">
+        <v>3</v>
+      </c>
+      <c r="J242" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>50</v>
+      </c>
+      <c r="B243" t="s">
+        <v>156</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D243">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243">
+        <v>50</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243" t="s">
+        <v>56</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>51</v>
+      </c>
+      <c r="B244" t="s">
+        <v>157</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D244">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244">
+        <v>51</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="H244" t="s">
+        <v>57</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>52</v>
+      </c>
+      <c r="B245" t="s">
+        <v>158</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D245">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245">
+        <v>52</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="H245" t="s">
+        <v>58</v>
+      </c>
+      <c r="I245">
+        <v>3</v>
+      </c>
+      <c r="J245" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>53</v>
+      </c>
+      <c r="B246" t="s">
+        <v>159</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246">
+        <v>53</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246" t="s">
+        <v>59</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>54</v>
+      </c>
+      <c r="B247" t="s">
+        <v>160</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D247">
+        <v>9</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>54</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247" t="s">
+        <v>60</v>
+      </c>
+      <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>55</v>
+      </c>
+      <c r="B248" t="s">
+        <v>161</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248">
+        <v>55</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248" t="s">
+        <v>61</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>56</v>
+      </c>
+      <c r="B249" t="s">
+        <v>162</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D249">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249">
+        <v>56</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249" t="s">
+        <v>62</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>57</v>
+      </c>
+      <c r="B250" t="s">
+        <v>163</v>
+      </c>
+      <c r="C250" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D250">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250">
+        <v>57</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250" t="s">
+        <v>63</v>
+      </c>
+      <c r="I250">
+        <v>3</v>
+      </c>
+      <c r="J250" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>58</v>
+      </c>
+      <c r="B251" t="s">
+        <v>164</v>
+      </c>
+      <c r="C251" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D251">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251">
+        <v>58</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="H251" t="s">
+        <v>64</v>
+      </c>
+      <c r="I251">
+        <v>3</v>
+      </c>
+      <c r="J251" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>59</v>
+      </c>
+      <c r="B252" t="s">
+        <v>165</v>
+      </c>
+      <c r="C252" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252">
+        <v>59</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252" t="s">
+        <v>65</v>
+      </c>
+      <c r="I252">
+        <v>3</v>
+      </c>
+      <c r="J252" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>60</v>
+      </c>
+      <c r="B253" t="s">
+        <v>166</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D253">
+        <v>9</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F253">
+        <v>60</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253" t="s">
+        <v>66</v>
+      </c>
+      <c r="I253">
+        <v>3</v>
+      </c>
+      <c r="J253" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>61</v>
+      </c>
+      <c r="B254" t="s">
+        <v>167</v>
+      </c>
+      <c r="C254" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D254">
+        <v>9</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254">
+        <v>61</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+      <c r="H254" t="s">
+        <v>67</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+      <c r="J254" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>62</v>
+      </c>
+      <c r="B255" t="s">
+        <v>168</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D255">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255">
+        <v>62</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255" t="s">
+        <v>68</v>
+      </c>
+      <c r="I255">
+        <v>3</v>
+      </c>
+      <c r="J255" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>63</v>
+      </c>
+      <c r="B256" t="s">
+        <v>169</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D256">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+      <c r="F256">
+        <v>63</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256" t="s">
+        <v>69</v>
+      </c>
+      <c r="I256">
+        <v>3</v>
+      </c>
+      <c r="J256" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>64</v>
+      </c>
+      <c r="B257" t="s">
+        <v>170</v>
+      </c>
+      <c r="C257" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D257">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257">
+        <v>64</v>
+      </c>
+      <c r="G257">
+        <v>3</v>
+      </c>
+      <c r="H257" t="s">
+        <v>70</v>
+      </c>
+      <c r="I257">
+        <v>3</v>
+      </c>
+      <c r="J257" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>65</v>
+      </c>
+      <c r="B258" t="s">
+        <v>171</v>
+      </c>
+      <c r="C258" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D258">
+        <v>9</v>
+      </c>
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258">
+        <v>65</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258" t="s">
+        <v>71</v>
+      </c>
+      <c r="I258">
+        <v>3</v>
+      </c>
+      <c r="J258" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>66</v>
+      </c>
+      <c r="B259" t="s">
+        <v>172</v>
+      </c>
+      <c r="C259" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D259">
+        <v>9</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259">
+        <v>66</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+      <c r="H259" t="s">
+        <v>72</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>67</v>
+      </c>
+      <c r="B260" t="s">
+        <v>173</v>
+      </c>
+      <c r="C260" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D260">
+        <v>9</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260">
+        <v>67</v>
+      </c>
+      <c r="G260">
+        <v>3</v>
+      </c>
+      <c r="H260" t="s">
+        <v>73</v>
+      </c>
+      <c r="I260">
+        <v>3</v>
+      </c>
+      <c r="J260" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>68</v>
+      </c>
+      <c r="B261" t="s">
+        <v>174</v>
+      </c>
+      <c r="C261" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D261">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261">
+        <v>68</v>
+      </c>
+      <c r="G261">
+        <v>3</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>3</v>
+      </c>
+      <c r="J261" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>69</v>
+      </c>
+      <c r="B262" t="s">
+        <v>175</v>
+      </c>
+      <c r="C262" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D262">
+        <v>9</v>
+      </c>
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262">
+        <v>69</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262" t="s">
+        <v>75</v>
+      </c>
+      <c r="I262">
+        <v>3</v>
+      </c>
+      <c r="J262" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>70</v>
+      </c>
+      <c r="B263" t="s">
+        <v>176</v>
+      </c>
+      <c r="C263" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D263">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263">
+        <v>70</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+      <c r="H263" t="s">
+        <v>76</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>71</v>
+      </c>
+      <c r="B264" t="s">
+        <v>177</v>
+      </c>
+      <c r="C264" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D264">
+        <v>9</v>
+      </c>
+      <c r="E264" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264">
+        <v>71</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="H264" t="s">
+        <v>77</v>
+      </c>
+      <c r="I264">
+        <v>3</v>
+      </c>
+      <c r="J264" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>72</v>
+      </c>
+      <c r="B265" t="s">
+        <v>178</v>
+      </c>
+      <c r="C265" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D265">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265">
+        <v>72</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265" t="s">
+        <v>78</v>
+      </c>
+      <c r="I265">
+        <v>3</v>
+      </c>
+      <c r="J265" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>73</v>
+      </c>
+      <c r="B266" t="s">
+        <v>179</v>
+      </c>
+      <c r="C266" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D266">
+        <v>9</v>
+      </c>
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266">
+        <v>73</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266" t="s">
+        <v>79</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="J266" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>74</v>
+      </c>
+      <c r="B267" t="s">
+        <v>180</v>
+      </c>
+      <c r="C267" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D267">
+        <v>9</v>
+      </c>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267">
+        <v>74</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267" t="s">
+        <v>80</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>75</v>
+      </c>
+      <c r="B268" t="s">
+        <v>181</v>
+      </c>
+      <c r="C268" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D268">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268">
+        <v>75</v>
+      </c>
+      <c r="G268">
+        <v>3</v>
+      </c>
+      <c r="H268" t="s">
+        <v>81</v>
+      </c>
+      <c r="I268">
+        <v>3</v>
+      </c>
+      <c r="J268" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>76</v>
+      </c>
+      <c r="B269" t="s">
+        <v>182</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D269">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269">
+        <v>76</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
+      </c>
+      <c r="H269" t="s">
+        <v>82</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>77</v>
+      </c>
+      <c r="B270" t="s">
+        <v>183</v>
+      </c>
+      <c r="C270" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D270">
+        <v>9</v>
+      </c>
+      <c r="E270" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270">
+        <v>77</v>
+      </c>
+      <c r="G270">
+        <v>3</v>
+      </c>
+      <c r="H270" t="s">
+        <v>83</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>78</v>
+      </c>
+      <c r="B271" t="s">
+        <v>184</v>
+      </c>
+      <c r="C271" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D271">
+        <v>9</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271">
+        <v>78</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271" t="s">
+        <v>84</v>
+      </c>
+      <c r="I271">
+        <v>3</v>
+      </c>
+      <c r="J271" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>79</v>
+      </c>
+      <c r="B272" t="s">
+        <v>185</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D272">
+        <v>9</v>
+      </c>
+      <c r="E272" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272">
+        <v>79</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272" t="s">
+        <v>85</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+      <c r="J272" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>80</v>
+      </c>
+      <c r="B273" t="s">
+        <v>186</v>
+      </c>
+      <c r="C273" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D273">
+        <v>9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273">
+        <v>80</v>
+      </c>
+      <c r="G273">
+        <v>3</v>
+      </c>
+      <c r="H273" t="s">
+        <v>86</v>
+      </c>
+      <c r="I273">
+        <v>3</v>
+      </c>
+      <c r="J273" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>81</v>
+      </c>
+      <c r="B274" t="s">
+        <v>187</v>
+      </c>
+      <c r="C274" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D274">
+        <v>9</v>
+      </c>
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274">
+        <v>81</v>
+      </c>
+      <c r="G274">
+        <v>3</v>
+      </c>
+      <c r="H274" t="s">
+        <v>87</v>
+      </c>
+      <c r="I274">
+        <v>3</v>
+      </c>
+      <c r="J274" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>82</v>
+      </c>
+      <c r="B275" t="s">
+        <v>188</v>
+      </c>
+      <c r="C275" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D275">
+        <v>9</v>
+      </c>
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+      <c r="F275">
+        <v>82</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+      <c r="H275" t="s">
+        <v>88</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+      <c r="J275" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>83</v>
+      </c>
+      <c r="B276" t="s">
+        <v>189</v>
+      </c>
+      <c r="C276" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D276">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276">
+        <v>83</v>
+      </c>
+      <c r="G276">
+        <v>3</v>
+      </c>
+      <c r="H276" t="s">
+        <v>89</v>
+      </c>
+      <c r="I276">
+        <v>3</v>
+      </c>
+      <c r="J276" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>84</v>
+      </c>
+      <c r="B277" t="s">
+        <v>190</v>
+      </c>
+      <c r="C277" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D277">
+        <v>9</v>
+      </c>
+      <c r="E277" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277">
+        <v>84</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+      <c r="H277" t="s">
+        <v>90</v>
+      </c>
+      <c r="I277">
+        <v>3</v>
+      </c>
+      <c r="J277" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>85</v>
+      </c>
+      <c r="B278" t="s">
+        <v>191</v>
+      </c>
+      <c r="C278" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D278">
+        <v>9</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278">
+        <v>85</v>
+      </c>
+      <c r="G278">
+        <v>3</v>
+      </c>
+      <c r="H278" t="s">
+        <v>91</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>86</v>
+      </c>
+      <c r="B279" t="s">
+        <v>192</v>
+      </c>
+      <c r="C279" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D279">
+        <v>9</v>
+      </c>
+      <c r="E279" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279">
+        <v>86</v>
+      </c>
+      <c r="G279">
+        <v>3</v>
+      </c>
+      <c r="H279" t="s">
+        <v>92</v>
+      </c>
+      <c r="I279">
+        <v>3</v>
+      </c>
+      <c r="J279" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>87</v>
+      </c>
+      <c r="B280" t="s">
+        <v>193</v>
+      </c>
+      <c r="C280" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D280">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280">
+        <v>87</v>
+      </c>
+      <c r="G280">
+        <v>3</v>
+      </c>
+      <c r="H280" t="s">
+        <v>93</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+      <c r="J280" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>88</v>
+      </c>
+      <c r="B281" t="s">
+        <v>194</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D281">
+        <v>9</v>
+      </c>
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281">
+        <v>88</v>
+      </c>
+      <c r="G281">
+        <v>3</v>
+      </c>
+      <c r="H281" t="s">
+        <v>94</v>
+      </c>
+      <c r="I281">
+        <v>3</v>
+      </c>
+      <c r="J281" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>89</v>
+      </c>
+      <c r="B282" t="s">
+        <v>195</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D282">
+        <v>9</v>
+      </c>
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282">
+        <v>89</v>
+      </c>
+      <c r="G282">
+        <v>3</v>
+      </c>
+      <c r="H282" t="s">
+        <v>95</v>
+      </c>
+      <c r="I282">
+        <v>3</v>
+      </c>
+      <c r="J282" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>90</v>
+      </c>
+      <c r="B283" t="s">
+        <v>196</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D283">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283">
+        <v>90</v>
+      </c>
+      <c r="G283">
+        <v>3</v>
+      </c>
+      <c r="H283" t="s">
+        <v>96</v>
+      </c>
+      <c r="I283">
+        <v>3</v>
+      </c>
+      <c r="J283" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>91</v>
+      </c>
+      <c r="B284" t="s">
+        <v>197</v>
+      </c>
+      <c r="C284" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D284">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284">
+        <v>91</v>
+      </c>
+      <c r="G284">
+        <v>3</v>
+      </c>
+      <c r="H284" t="s">
+        <v>97</v>
+      </c>
+      <c r="I284">
+        <v>3</v>
+      </c>
+      <c r="J284" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>92</v>
+      </c>
+      <c r="B285" t="s">
+        <v>198</v>
+      </c>
+      <c r="C285" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D285">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285">
+        <v>92</v>
+      </c>
+      <c r="G285">
+        <v>3</v>
+      </c>
+      <c r="H285" t="s">
+        <v>98</v>
+      </c>
+      <c r="I285">
+        <v>3</v>
+      </c>
+      <c r="J285" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>93</v>
+      </c>
+      <c r="B286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C286" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D286">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286">
+        <v>93</v>
+      </c>
+      <c r="G286">
+        <v>3</v>
+      </c>
+      <c r="H286" t="s">
+        <v>100</v>
+      </c>
+      <c r="I286">
+        <v>3</v>
+      </c>
+      <c r="J286" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>94</v>
+      </c>
+      <c r="B287" t="s">
+        <v>101</v>
+      </c>
+      <c r="C287" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D287">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287">
+        <v>94</v>
+      </c>
+      <c r="G287">
+        <v>3</v>
+      </c>
+      <c r="H287" t="s">
+        <v>102</v>
+      </c>
+      <c r="I287">
+        <v>3</v>
+      </c>
+      <c r="J287" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>95</v>
+      </c>
+      <c r="B288" t="s">
+        <v>103</v>
+      </c>
+      <c r="C288" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D288">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288">
+        <v>95</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288" t="s">
+        <v>104</v>
+      </c>
+      <c r="I288">
+        <v>3</v>
+      </c>
+      <c r="J288" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>96</v>
+      </c>
+      <c r="B289" t="s">
+        <v>105</v>
+      </c>
+      <c r="C289" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D289">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>6</v>
+      </c>
+      <c r="F289">
+        <v>96</v>
+      </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
+      <c r="H289" t="s">
+        <v>106</v>
+      </c>
+      <c r="I289">
+        <v>3</v>
+      </c>
+      <c r="J289" s="22">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D290">
+        <v>15</v>
+      </c>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>4</v>
+      </c>
+      <c r="H290" t="s">
+        <v>7</v>
+      </c>
+      <c r="I290">
+        <v>4</v>
+      </c>
+      <c r="J290" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291" t="s">
+        <v>108</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D291">
+        <v>15</v>
+      </c>
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+      <c r="G291">
+        <v>4</v>
+      </c>
+      <c r="H291" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+      <c r="J291" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>109</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D292">
+        <v>15</v>
+      </c>
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
+      <c r="F292">
+        <v>3</v>
+      </c>
+      <c r="G292">
+        <v>4</v>
+      </c>
+      <c r="H292" t="s">
+        <v>9</v>
+      </c>
+      <c r="I292">
+        <v>4</v>
+      </c>
+      <c r="J292" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>110</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D293">
+        <v>15</v>
+      </c>
+      <c r="E293" t="s">
+        <v>6</v>
+      </c>
+      <c r="F293">
+        <v>4</v>
+      </c>
+      <c r="G293">
+        <v>4</v>
+      </c>
+      <c r="H293" t="s">
+        <v>10</v>
+      </c>
+      <c r="I293">
+        <v>4</v>
+      </c>
+      <c r="J293" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>111</v>
+      </c>
+      <c r="C294" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D294">
+        <v>15</v>
+      </c>
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294" t="s">
+        <v>11</v>
+      </c>
+      <c r="I294">
+        <v>4</v>
+      </c>
+      <c r="J294" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>112</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D295">
+        <v>15</v>
+      </c>
+      <c r="E295" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+      <c r="G295">
+        <v>4</v>
+      </c>
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
+        <v>4</v>
+      </c>
+      <c r="J295" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>7</v>
+      </c>
+      <c r="B296" t="s">
+        <v>113</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D296">
+        <v>15</v>
+      </c>
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296">
+        <v>7</v>
+      </c>
+      <c r="G296">
+        <v>4</v>
+      </c>
+      <c r="H296" t="s">
+        <v>13</v>
+      </c>
+      <c r="I296">
+        <v>4</v>
+      </c>
+      <c r="J296" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>8</v>
+      </c>
+      <c r="B297" t="s">
+        <v>114</v>
+      </c>
+      <c r="C297" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D297">
+        <v>15</v>
+      </c>
+      <c r="E297" t="s">
+        <v>6</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297">
+        <v>4</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297">
+        <v>4</v>
+      </c>
+      <c r="J297" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>9</v>
+      </c>
+      <c r="B298" t="s">
+        <v>115</v>
+      </c>
+      <c r="C298" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D298">
+        <v>15</v>
+      </c>
+      <c r="E298" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298">
+        <v>9</v>
+      </c>
+      <c r="G298">
+        <v>4</v>
+      </c>
+      <c r="H298" t="s">
+        <v>15</v>
+      </c>
+      <c r="I298">
+        <v>4</v>
+      </c>
+      <c r="J298" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>116</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D299">
+        <v>15</v>
+      </c>
+      <c r="E299" t="s">
+        <v>6</v>
+      </c>
+      <c r="F299">
+        <v>10</v>
+      </c>
+      <c r="G299">
+        <v>4</v>
+      </c>
+      <c r="H299" t="s">
+        <v>16</v>
+      </c>
+      <c r="I299">
+        <v>4</v>
+      </c>
+      <c r="J299" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>117</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D300">
+        <v>15</v>
+      </c>
+      <c r="E300" t="s">
+        <v>6</v>
+      </c>
+      <c r="F300">
+        <v>11</v>
+      </c>
+      <c r="G300">
+        <v>4</v>
+      </c>
+      <c r="H300" t="s">
+        <v>17</v>
+      </c>
+      <c r="I300">
+        <v>4</v>
+      </c>
+      <c r="J300" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>12</v>
+      </c>
+      <c r="B301" t="s">
+        <v>118</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D301">
+        <v>15</v>
+      </c>
+      <c r="E301" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301">
+        <v>12</v>
+      </c>
+      <c r="G301">
+        <v>4</v>
+      </c>
+      <c r="H301" t="s">
+        <v>18</v>
+      </c>
+      <c r="I301">
+        <v>4</v>
+      </c>
+      <c r="J301" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>13</v>
+      </c>
+      <c r="B302" t="s">
+        <v>119</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D302">
+        <v>15</v>
+      </c>
+      <c r="E302" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302">
+        <v>13</v>
+      </c>
+      <c r="G302">
+        <v>4</v>
+      </c>
+      <c r="H302" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302">
+        <v>4</v>
+      </c>
+      <c r="J302" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>120</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D303">
+        <v>15</v>
+      </c>
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303">
+        <v>14</v>
+      </c>
+      <c r="G303">
+        <v>4</v>
+      </c>
+      <c r="H303" t="s">
+        <v>20</v>
+      </c>
+      <c r="I303">
+        <v>4</v>
+      </c>
+      <c r="J303" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>15</v>
+      </c>
+      <c r="B304" t="s">
+        <v>121</v>
+      </c>
+      <c r="C304" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304">
+        <v>15</v>
+      </c>
+      <c r="G304">
+        <v>4</v>
+      </c>
+      <c r="H304" t="s">
+        <v>21</v>
+      </c>
+      <c r="I304">
+        <v>4</v>
+      </c>
+      <c r="J304" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>122</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D305">
+        <v>15</v>
+      </c>
+      <c r="E305" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305">
+        <v>16</v>
+      </c>
+      <c r="G305">
+        <v>4</v>
+      </c>
+      <c r="H305" t="s">
+        <v>22</v>
+      </c>
+      <c r="I305">
+        <v>4</v>
+      </c>
+      <c r="J305" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>17</v>
+      </c>
+      <c r="B306" t="s">
+        <v>123</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D306">
+        <v>15</v>
+      </c>
+      <c r="E306" t="s">
+        <v>6</v>
+      </c>
+      <c r="F306">
+        <v>17</v>
+      </c>
+      <c r="G306">
+        <v>4</v>
+      </c>
+      <c r="H306" t="s">
+        <v>23</v>
+      </c>
+      <c r="I306">
+        <v>4</v>
+      </c>
+      <c r="J306" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>18</v>
+      </c>
+      <c r="B307" t="s">
+        <v>124</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D307">
+        <v>15</v>
+      </c>
+      <c r="E307" t="s">
+        <v>6</v>
+      </c>
+      <c r="F307">
+        <v>18</v>
+      </c>
+      <c r="G307">
+        <v>4</v>
+      </c>
+      <c r="H307" t="s">
+        <v>24</v>
+      </c>
+      <c r="I307">
+        <v>4</v>
+      </c>
+      <c r="J307" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>19</v>
+      </c>
+      <c r="B308" t="s">
+        <v>125</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D308">
+        <v>15</v>
+      </c>
+      <c r="E308" t="s">
+        <v>6</v>
+      </c>
+      <c r="F308">
+        <v>19</v>
+      </c>
+      <c r="G308">
+        <v>4</v>
+      </c>
+      <c r="H308" t="s">
+        <v>25</v>
+      </c>
+      <c r="I308">
+        <v>4</v>
+      </c>
+      <c r="J308" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>20</v>
+      </c>
+      <c r="B309" t="s">
+        <v>126</v>
+      </c>
+      <c r="C309" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D309">
+        <v>15</v>
+      </c>
+      <c r="E309" t="s">
+        <v>6</v>
+      </c>
+      <c r="F309">
+        <v>20</v>
+      </c>
+      <c r="G309">
+        <v>4</v>
+      </c>
+      <c r="H309" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309">
+        <v>4</v>
+      </c>
+      <c r="J309" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>21</v>
+      </c>
+      <c r="B310" t="s">
+        <v>127</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D310">
+        <v>15</v>
+      </c>
+      <c r="E310" t="s">
+        <v>6</v>
+      </c>
+      <c r="F310">
+        <v>21</v>
+      </c>
+      <c r="G310">
+        <v>4</v>
+      </c>
+      <c r="H310" t="s">
+        <v>27</v>
+      </c>
+      <c r="I310">
+        <v>4</v>
+      </c>
+      <c r="J310" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>22</v>
+      </c>
+      <c r="B311" t="s">
+        <v>128</v>
+      </c>
+      <c r="C311" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D311">
+        <v>15</v>
+      </c>
+      <c r="E311" t="s">
+        <v>6</v>
+      </c>
+      <c r="F311">
+        <v>22</v>
+      </c>
+      <c r="G311">
+        <v>4</v>
+      </c>
+      <c r="H311" t="s">
+        <v>28</v>
+      </c>
+      <c r="I311">
+        <v>4</v>
+      </c>
+      <c r="J311" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>23</v>
+      </c>
+      <c r="B312" t="s">
+        <v>129</v>
+      </c>
+      <c r="C312" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D312">
+        <v>15</v>
+      </c>
+      <c r="E312" t="s">
+        <v>6</v>
+      </c>
+      <c r="F312">
+        <v>23</v>
+      </c>
+      <c r="G312">
+        <v>4</v>
+      </c>
+      <c r="H312" t="s">
+        <v>29</v>
+      </c>
+      <c r="I312">
+        <v>4</v>
+      </c>
+      <c r="J312" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>24</v>
+      </c>
+      <c r="B313" t="s">
+        <v>130</v>
+      </c>
+      <c r="C313" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D313">
+        <v>15</v>
+      </c>
+      <c r="E313" t="s">
+        <v>6</v>
+      </c>
+      <c r="F313">
+        <v>24</v>
+      </c>
+      <c r="G313">
+        <v>4</v>
+      </c>
+      <c r="H313" t="s">
+        <v>30</v>
+      </c>
+      <c r="I313">
+        <v>4</v>
+      </c>
+      <c r="J313" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>25</v>
+      </c>
+      <c r="B314" t="s">
+        <v>131</v>
+      </c>
+      <c r="C314" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D314">
+        <v>15</v>
+      </c>
+      <c r="E314" t="s">
+        <v>6</v>
+      </c>
+      <c r="F314">
+        <v>25</v>
+      </c>
+      <c r="G314">
+        <v>4</v>
+      </c>
+      <c r="H314" t="s">
+        <v>31</v>
+      </c>
+      <c r="I314">
+        <v>4</v>
+      </c>
+      <c r="J314" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>26</v>
+      </c>
+      <c r="B315" t="s">
+        <v>132</v>
+      </c>
+      <c r="C315" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D315">
+        <v>15</v>
+      </c>
+      <c r="E315" t="s">
+        <v>6</v>
+      </c>
+      <c r="F315">
+        <v>26</v>
+      </c>
+      <c r="G315">
+        <v>4</v>
+      </c>
+      <c r="H315" t="s">
+        <v>32</v>
+      </c>
+      <c r="I315">
+        <v>4</v>
+      </c>
+      <c r="J315" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>27</v>
+      </c>
+      <c r="B316" t="s">
+        <v>133</v>
+      </c>
+      <c r="C316" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D316">
+        <v>15</v>
+      </c>
+      <c r="E316" t="s">
+        <v>6</v>
+      </c>
+      <c r="F316">
+        <v>27</v>
+      </c>
+      <c r="G316">
+        <v>4</v>
+      </c>
+      <c r="H316" t="s">
+        <v>33</v>
+      </c>
+      <c r="I316">
+        <v>4</v>
+      </c>
+      <c r="J316" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>28</v>
+      </c>
+      <c r="B317" t="s">
+        <v>134</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D317">
+        <v>15</v>
+      </c>
+      <c r="E317" t="s">
+        <v>6</v>
+      </c>
+      <c r="F317">
+        <v>28</v>
+      </c>
+      <c r="G317">
+        <v>4</v>
+      </c>
+      <c r="H317" t="s">
+        <v>34</v>
+      </c>
+      <c r="I317">
+        <v>4</v>
+      </c>
+      <c r="J317" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>29</v>
+      </c>
+      <c r="B318" t="s">
+        <v>135</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D318">
+        <v>15</v>
+      </c>
+      <c r="E318" t="s">
+        <v>6</v>
+      </c>
+      <c r="F318">
+        <v>29</v>
+      </c>
+      <c r="G318">
+        <v>4</v>
+      </c>
+      <c r="H318" t="s">
+        <v>35</v>
+      </c>
+      <c r="I318">
+        <v>4</v>
+      </c>
+      <c r="J318" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>30</v>
+      </c>
+      <c r="B319" t="s">
+        <v>136</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D319">
+        <v>15</v>
+      </c>
+      <c r="E319" t="s">
+        <v>6</v>
+      </c>
+      <c r="F319">
+        <v>30</v>
+      </c>
+      <c r="G319">
+        <v>4</v>
+      </c>
+      <c r="H319" t="s">
+        <v>36</v>
+      </c>
+      <c r="I319">
+        <v>4</v>
+      </c>
+      <c r="J319" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>31</v>
+      </c>
+      <c r="B320" t="s">
+        <v>137</v>
+      </c>
+      <c r="C320" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D320">
+        <v>15</v>
+      </c>
+      <c r="E320" t="s">
+        <v>6</v>
+      </c>
+      <c r="F320">
+        <v>31</v>
+      </c>
+      <c r="G320">
+        <v>4</v>
+      </c>
+      <c r="H320" t="s">
+        <v>37</v>
+      </c>
+      <c r="I320">
+        <v>4</v>
+      </c>
+      <c r="J320" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>32</v>
+      </c>
+      <c r="B321" t="s">
+        <v>138</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D321">
+        <v>15</v>
+      </c>
+      <c r="E321" t="s">
+        <v>6</v>
+      </c>
+      <c r="F321">
+        <v>32</v>
+      </c>
+      <c r="G321">
+        <v>4</v>
+      </c>
+      <c r="H321" t="s">
+        <v>38</v>
+      </c>
+      <c r="I321">
+        <v>4</v>
+      </c>
+      <c r="J321" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>33</v>
+      </c>
+      <c r="B322" t="s">
+        <v>139</v>
+      </c>
+      <c r="C322" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D322">
+        <v>15</v>
+      </c>
+      <c r="E322" t="s">
+        <v>6</v>
+      </c>
+      <c r="F322">
+        <v>33</v>
+      </c>
+      <c r="G322">
+        <v>4</v>
+      </c>
+      <c r="H322" t="s">
+        <v>39</v>
+      </c>
+      <c r="I322">
+        <v>4</v>
+      </c>
+      <c r="J322" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>34</v>
+      </c>
+      <c r="B323" t="s">
+        <v>140</v>
+      </c>
+      <c r="C323" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D323">
+        <v>15</v>
+      </c>
+      <c r="E323" t="s">
+        <v>6</v>
+      </c>
+      <c r="F323">
+        <v>34</v>
+      </c>
+      <c r="G323">
+        <v>4</v>
+      </c>
+      <c r="H323" t="s">
+        <v>40</v>
+      </c>
+      <c r="I323">
+        <v>4</v>
+      </c>
+      <c r="J323" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>35</v>
+      </c>
+      <c r="B324" t="s">
+        <v>141</v>
+      </c>
+      <c r="C324" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D324">
+        <v>15</v>
+      </c>
+      <c r="E324" t="s">
+        <v>6</v>
+      </c>
+      <c r="F324">
+        <v>35</v>
+      </c>
+      <c r="G324">
+        <v>4</v>
+      </c>
+      <c r="H324" t="s">
+        <v>41</v>
+      </c>
+      <c r="I324">
+        <v>4</v>
+      </c>
+      <c r="J324" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>36</v>
+      </c>
+      <c r="B325" t="s">
+        <v>142</v>
+      </c>
+      <c r="C325" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D325">
+        <v>15</v>
+      </c>
+      <c r="E325" t="s">
+        <v>6</v>
+      </c>
+      <c r="F325">
+        <v>36</v>
+      </c>
+      <c r="G325">
+        <v>4</v>
+      </c>
+      <c r="H325" t="s">
+        <v>42</v>
+      </c>
+      <c r="I325">
+        <v>4</v>
+      </c>
+      <c r="J325" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>37</v>
+      </c>
+      <c r="B326" t="s">
+        <v>143</v>
+      </c>
+      <c r="C326" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D326">
+        <v>15</v>
+      </c>
+      <c r="E326" t="s">
+        <v>6</v>
+      </c>
+      <c r="F326">
+        <v>37</v>
+      </c>
+      <c r="G326">
+        <v>4</v>
+      </c>
+      <c r="H326" t="s">
+        <v>43</v>
+      </c>
+      <c r="I326">
+        <v>4</v>
+      </c>
+      <c r="J326" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>38</v>
+      </c>
+      <c r="B327" t="s">
+        <v>144</v>
+      </c>
+      <c r="C327" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D327">
+        <v>15</v>
+      </c>
+      <c r="E327" t="s">
+        <v>6</v>
+      </c>
+      <c r="F327">
+        <v>38</v>
+      </c>
+      <c r="G327">
+        <v>4</v>
+      </c>
+      <c r="H327" t="s">
+        <v>44</v>
+      </c>
+      <c r="I327">
+        <v>4</v>
+      </c>
+      <c r="J327" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>39</v>
+      </c>
+      <c r="B328" t="s">
+        <v>145</v>
+      </c>
+      <c r="C328" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D328">
+        <v>15</v>
+      </c>
+      <c r="E328" t="s">
+        <v>6</v>
+      </c>
+      <c r="F328">
+        <v>39</v>
+      </c>
+      <c r="G328">
+        <v>4</v>
+      </c>
+      <c r="H328" t="s">
+        <v>45</v>
+      </c>
+      <c r="I328">
+        <v>4</v>
+      </c>
+      <c r="J328" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>40</v>
+      </c>
+      <c r="B329" t="s">
+        <v>146</v>
+      </c>
+      <c r="C329" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D329">
+        <v>15</v>
+      </c>
+      <c r="E329" t="s">
+        <v>6</v>
+      </c>
+      <c r="F329">
+        <v>40</v>
+      </c>
+      <c r="G329">
+        <v>4</v>
+      </c>
+      <c r="H329" t="s">
+        <v>46</v>
+      </c>
+      <c r="I329">
+        <v>4</v>
+      </c>
+      <c r="J329" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>41</v>
+      </c>
+      <c r="B330" t="s">
+        <v>147</v>
+      </c>
+      <c r="C330" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D330">
+        <v>15</v>
+      </c>
+      <c r="E330" t="s">
+        <v>6</v>
+      </c>
+      <c r="F330">
+        <v>41</v>
+      </c>
+      <c r="G330">
+        <v>4</v>
+      </c>
+      <c r="H330" t="s">
+        <v>47</v>
+      </c>
+      <c r="I330">
+        <v>4</v>
+      </c>
+      <c r="J330" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>42</v>
+      </c>
+      <c r="B331" t="s">
+        <v>148</v>
+      </c>
+      <c r="C331" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D331">
+        <v>15</v>
+      </c>
+      <c r="E331" t="s">
+        <v>6</v>
+      </c>
+      <c r="F331">
+        <v>42</v>
+      </c>
+      <c r="G331">
+        <v>4</v>
+      </c>
+      <c r="H331" t="s">
+        <v>48</v>
+      </c>
+      <c r="I331">
+        <v>4</v>
+      </c>
+      <c r="J331" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>43</v>
+      </c>
+      <c r="B332" t="s">
+        <v>149</v>
+      </c>
+      <c r="C332" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D332">
+        <v>15</v>
+      </c>
+      <c r="E332" t="s">
+        <v>6</v>
+      </c>
+      <c r="F332">
+        <v>43</v>
+      </c>
+      <c r="G332">
+        <v>4</v>
+      </c>
+      <c r="H332" t="s">
+        <v>49</v>
+      </c>
+      <c r="I332">
+        <v>4</v>
+      </c>
+      <c r="J332" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>44</v>
+      </c>
+      <c r="B333" t="s">
+        <v>150</v>
+      </c>
+      <c r="C333" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D333">
+        <v>15</v>
+      </c>
+      <c r="E333" t="s">
+        <v>6</v>
+      </c>
+      <c r="F333">
+        <v>44</v>
+      </c>
+      <c r="G333">
+        <v>4</v>
+      </c>
+      <c r="H333" t="s">
+        <v>50</v>
+      </c>
+      <c r="I333">
+        <v>4</v>
+      </c>
+      <c r="J333" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>45</v>
+      </c>
+      <c r="B334" t="s">
+        <v>151</v>
+      </c>
+      <c r="C334" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D334">
+        <v>15</v>
+      </c>
+      <c r="E334" t="s">
+        <v>6</v>
+      </c>
+      <c r="F334">
+        <v>45</v>
+      </c>
+      <c r="G334">
+        <v>4</v>
+      </c>
+      <c r="H334" t="s">
+        <v>51</v>
+      </c>
+      <c r="I334">
+        <v>4</v>
+      </c>
+      <c r="J334" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>46</v>
+      </c>
+      <c r="B335" t="s">
+        <v>152</v>
+      </c>
+      <c r="C335" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D335">
+        <v>15</v>
+      </c>
+      <c r="E335" t="s">
+        <v>6</v>
+      </c>
+      <c r="F335">
+        <v>46</v>
+      </c>
+      <c r="G335">
+        <v>4</v>
+      </c>
+      <c r="H335" t="s">
+        <v>52</v>
+      </c>
+      <c r="I335">
+        <v>4</v>
+      </c>
+      <c r="J335" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>47</v>
+      </c>
+      <c r="B336" t="s">
+        <v>153</v>
+      </c>
+      <c r="C336" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D336">
+        <v>15</v>
+      </c>
+      <c r="E336" t="s">
+        <v>6</v>
+      </c>
+      <c r="F336">
+        <v>47</v>
+      </c>
+      <c r="G336">
+        <v>4</v>
+      </c>
+      <c r="H336" t="s">
+        <v>53</v>
+      </c>
+      <c r="I336">
+        <v>4</v>
+      </c>
+      <c r="J336" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>48</v>
+      </c>
+      <c r="B337" t="s">
+        <v>154</v>
+      </c>
+      <c r="C337" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D337">
+        <v>15</v>
+      </c>
+      <c r="E337" t="s">
+        <v>6</v>
+      </c>
+      <c r="F337">
+        <v>48</v>
+      </c>
+      <c r="G337">
+        <v>4</v>
+      </c>
+      <c r="H337" t="s">
+        <v>54</v>
+      </c>
+      <c r="I337">
+        <v>4</v>
+      </c>
+      <c r="J337" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>49</v>
+      </c>
+      <c r="B338" t="s">
+        <v>155</v>
+      </c>
+      <c r="C338" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D338">
+        <v>15</v>
+      </c>
+      <c r="E338" t="s">
+        <v>6</v>
+      </c>
+      <c r="F338">
+        <v>49</v>
+      </c>
+      <c r="G338">
+        <v>4</v>
+      </c>
+      <c r="H338" t="s">
+        <v>55</v>
+      </c>
+      <c r="I338">
+        <v>4</v>
+      </c>
+      <c r="J338" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>50</v>
+      </c>
+      <c r="B339" t="s">
+        <v>156</v>
+      </c>
+      <c r="C339" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D339">
+        <v>15</v>
+      </c>
+      <c r="E339" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339">
+        <v>50</v>
+      </c>
+      <c r="G339">
+        <v>4</v>
+      </c>
+      <c r="H339" t="s">
+        <v>56</v>
+      </c>
+      <c r="I339">
+        <v>4</v>
+      </c>
+      <c r="J339" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>51</v>
+      </c>
+      <c r="B340" t="s">
+        <v>157</v>
+      </c>
+      <c r="C340" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D340">
+        <v>15</v>
+      </c>
+      <c r="E340" t="s">
+        <v>6</v>
+      </c>
+      <c r="F340">
+        <v>51</v>
+      </c>
+      <c r="G340">
+        <v>4</v>
+      </c>
+      <c r="H340" t="s">
+        <v>57</v>
+      </c>
+      <c r="I340">
+        <v>4</v>
+      </c>
+      <c r="J340" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>52</v>
+      </c>
+      <c r="B341" t="s">
+        <v>158</v>
+      </c>
+      <c r="C341" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D341">
+        <v>15</v>
+      </c>
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
+      <c r="F341">
+        <v>52</v>
+      </c>
+      <c r="G341">
+        <v>4</v>
+      </c>
+      <c r="H341" t="s">
+        <v>58</v>
+      </c>
+      <c r="I341">
+        <v>4</v>
+      </c>
+      <c r="J341" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>53</v>
+      </c>
+      <c r="B342" t="s">
+        <v>159</v>
+      </c>
+      <c r="C342" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D342">
+        <v>15</v>
+      </c>
+      <c r="E342" t="s">
+        <v>6</v>
+      </c>
+      <c r="F342">
+        <v>53</v>
+      </c>
+      <c r="G342">
+        <v>4</v>
+      </c>
+      <c r="H342" t="s">
+        <v>59</v>
+      </c>
+      <c r="I342">
+        <v>4</v>
+      </c>
+      <c r="J342" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>54</v>
+      </c>
+      <c r="B343" t="s">
+        <v>160</v>
+      </c>
+      <c r="C343" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D343">
+        <v>15</v>
+      </c>
+      <c r="E343" t="s">
+        <v>6</v>
+      </c>
+      <c r="F343">
+        <v>54</v>
+      </c>
+      <c r="G343">
+        <v>4</v>
+      </c>
+      <c r="H343" t="s">
+        <v>60</v>
+      </c>
+      <c r="I343">
+        <v>4</v>
+      </c>
+      <c r="J343" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>55</v>
+      </c>
+      <c r="B344" t="s">
+        <v>161</v>
+      </c>
+      <c r="C344" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D344">
+        <v>15</v>
+      </c>
+      <c r="E344" t="s">
+        <v>6</v>
+      </c>
+      <c r="F344">
+        <v>55</v>
+      </c>
+      <c r="G344">
+        <v>4</v>
+      </c>
+      <c r="H344" t="s">
+        <v>61</v>
+      </c>
+      <c r="I344">
+        <v>4</v>
+      </c>
+      <c r="J344" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>56</v>
+      </c>
+      <c r="B345" t="s">
+        <v>162</v>
+      </c>
+      <c r="C345" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D345">
+        <v>15</v>
+      </c>
+      <c r="E345" t="s">
+        <v>6</v>
+      </c>
+      <c r="F345">
+        <v>56</v>
+      </c>
+      <c r="G345">
+        <v>4</v>
+      </c>
+      <c r="H345" t="s">
+        <v>62</v>
+      </c>
+      <c r="I345">
+        <v>4</v>
+      </c>
+      <c r="J345" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>57</v>
+      </c>
+      <c r="B346" t="s">
+        <v>163</v>
+      </c>
+      <c r="C346" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D346">
+        <v>15</v>
+      </c>
+      <c r="E346" t="s">
+        <v>6</v>
+      </c>
+      <c r="F346">
+        <v>57</v>
+      </c>
+      <c r="G346">
+        <v>4</v>
+      </c>
+      <c r="H346" t="s">
+        <v>63</v>
+      </c>
+      <c r="I346">
+        <v>4</v>
+      </c>
+      <c r="J346" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>58</v>
+      </c>
+      <c r="B347" t="s">
+        <v>164</v>
+      </c>
+      <c r="C347" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D347">
+        <v>15</v>
+      </c>
+      <c r="E347" t="s">
+        <v>6</v>
+      </c>
+      <c r="F347">
+        <v>58</v>
+      </c>
+      <c r="G347">
+        <v>4</v>
+      </c>
+      <c r="H347" t="s">
+        <v>64</v>
+      </c>
+      <c r="I347">
+        <v>4</v>
+      </c>
+      <c r="J347" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>59</v>
+      </c>
+      <c r="B348" t="s">
+        <v>165</v>
+      </c>
+      <c r="C348" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D348">
+        <v>15</v>
+      </c>
+      <c r="E348" t="s">
+        <v>6</v>
+      </c>
+      <c r="F348">
+        <v>59</v>
+      </c>
+      <c r="G348">
+        <v>4</v>
+      </c>
+      <c r="H348" t="s">
+        <v>65</v>
+      </c>
+      <c r="I348">
+        <v>4</v>
+      </c>
+      <c r="J348" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>60</v>
+      </c>
+      <c r="B349" t="s">
+        <v>166</v>
+      </c>
+      <c r="C349" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D349">
+        <v>15</v>
+      </c>
+      <c r="E349" t="s">
+        <v>6</v>
+      </c>
+      <c r="F349">
+        <v>60</v>
+      </c>
+      <c r="G349">
+        <v>4</v>
+      </c>
+      <c r="H349" t="s">
+        <v>66</v>
+      </c>
+      <c r="I349">
+        <v>4</v>
+      </c>
+      <c r="J349" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>61</v>
+      </c>
+      <c r="B350" t="s">
+        <v>167</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D350">
+        <v>15</v>
+      </c>
+      <c r="E350" t="s">
+        <v>6</v>
+      </c>
+      <c r="F350">
+        <v>61</v>
+      </c>
+      <c r="G350">
+        <v>4</v>
+      </c>
+      <c r="H350" t="s">
+        <v>67</v>
+      </c>
+      <c r="I350">
+        <v>4</v>
+      </c>
+      <c r="J350" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>62</v>
+      </c>
+      <c r="B351" t="s">
+        <v>168</v>
+      </c>
+      <c r="C351" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D351">
+        <v>15</v>
+      </c>
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
+      <c r="F351">
+        <v>62</v>
+      </c>
+      <c r="G351">
+        <v>4</v>
+      </c>
+      <c r="H351" t="s">
+        <v>68</v>
+      </c>
+      <c r="I351">
+        <v>4</v>
+      </c>
+      <c r="J351" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>63</v>
+      </c>
+      <c r="B352" t="s">
+        <v>169</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D352">
+        <v>15</v>
+      </c>
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+      <c r="F352">
+        <v>63</v>
+      </c>
+      <c r="G352">
+        <v>4</v>
+      </c>
+      <c r="H352" t="s">
+        <v>69</v>
+      </c>
+      <c r="I352">
+        <v>4</v>
+      </c>
+      <c r="J352" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>64</v>
+      </c>
+      <c r="B353" t="s">
+        <v>170</v>
+      </c>
+      <c r="C353" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D353">
+        <v>15</v>
+      </c>
+      <c r="E353" t="s">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>64</v>
+      </c>
+      <c r="G353">
+        <v>4</v>
+      </c>
+      <c r="H353" t="s">
+        <v>70</v>
+      </c>
+      <c r="I353">
+        <v>4</v>
+      </c>
+      <c r="J353" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>65</v>
+      </c>
+      <c r="B354" t="s">
+        <v>171</v>
+      </c>
+      <c r="C354" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D354">
+        <v>15</v>
+      </c>
+      <c r="E354" t="s">
+        <v>6</v>
+      </c>
+      <c r="F354">
+        <v>65</v>
+      </c>
+      <c r="G354">
+        <v>4</v>
+      </c>
+      <c r="H354" t="s">
+        <v>71</v>
+      </c>
+      <c r="I354">
+        <v>4</v>
+      </c>
+      <c r="J354" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>66</v>
+      </c>
+      <c r="B355" t="s">
+        <v>172</v>
+      </c>
+      <c r="C355" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D355">
+        <v>15</v>
+      </c>
+      <c r="E355" t="s">
+        <v>6</v>
+      </c>
+      <c r="F355">
+        <v>66</v>
+      </c>
+      <c r="G355">
+        <v>4</v>
+      </c>
+      <c r="H355" t="s">
+        <v>72</v>
+      </c>
+      <c r="I355">
+        <v>4</v>
+      </c>
+      <c r="J355" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>67</v>
+      </c>
+      <c r="B356" t="s">
+        <v>173</v>
+      </c>
+      <c r="C356" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D356">
+        <v>15</v>
+      </c>
+      <c r="E356" t="s">
+        <v>6</v>
+      </c>
+      <c r="F356">
+        <v>67</v>
+      </c>
+      <c r="G356">
+        <v>4</v>
+      </c>
+      <c r="H356" t="s">
+        <v>73</v>
+      </c>
+      <c r="I356">
+        <v>4</v>
+      </c>
+      <c r="J356" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>68</v>
+      </c>
+      <c r="B357" t="s">
+        <v>174</v>
+      </c>
+      <c r="C357" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D357">
+        <v>15</v>
+      </c>
+      <c r="E357" t="s">
+        <v>6</v>
+      </c>
+      <c r="F357">
+        <v>68</v>
+      </c>
+      <c r="G357">
+        <v>4</v>
+      </c>
+      <c r="H357" t="s">
+        <v>74</v>
+      </c>
+      <c r="I357">
+        <v>4</v>
+      </c>
+      <c r="J357" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>69</v>
+      </c>
+      <c r="B358" t="s">
+        <v>175</v>
+      </c>
+      <c r="C358" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D358">
+        <v>15</v>
+      </c>
+      <c r="E358" t="s">
+        <v>6</v>
+      </c>
+      <c r="F358">
+        <v>69</v>
+      </c>
+      <c r="G358">
+        <v>4</v>
+      </c>
+      <c r="H358" t="s">
+        <v>75</v>
+      </c>
+      <c r="I358">
+        <v>4</v>
+      </c>
+      <c r="J358" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>70</v>
+      </c>
+      <c r="B359" t="s">
+        <v>176</v>
+      </c>
+      <c r="C359" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D359">
+        <v>15</v>
+      </c>
+      <c r="E359" t="s">
+        <v>6</v>
+      </c>
+      <c r="F359">
+        <v>70</v>
+      </c>
+      <c r="G359">
+        <v>4</v>
+      </c>
+      <c r="H359" t="s">
+        <v>76</v>
+      </c>
+      <c r="I359">
+        <v>4</v>
+      </c>
+      <c r="J359" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>71</v>
+      </c>
+      <c r="B360" t="s">
+        <v>177</v>
+      </c>
+      <c r="C360" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D360">
+        <v>15</v>
+      </c>
+      <c r="E360" t="s">
+        <v>6</v>
+      </c>
+      <c r="F360">
+        <v>71</v>
+      </c>
+      <c r="G360">
+        <v>4</v>
+      </c>
+      <c r="H360" t="s">
+        <v>77</v>
+      </c>
+      <c r="I360">
+        <v>4</v>
+      </c>
+      <c r="J360" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>72</v>
+      </c>
+      <c r="B361" t="s">
+        <v>178</v>
+      </c>
+      <c r="C361" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D361">
+        <v>15</v>
+      </c>
+      <c r="E361" t="s">
+        <v>6</v>
+      </c>
+      <c r="F361">
+        <v>72</v>
+      </c>
+      <c r="G361">
+        <v>4</v>
+      </c>
+      <c r="H361" t="s">
+        <v>78</v>
+      </c>
+      <c r="I361">
+        <v>4</v>
+      </c>
+      <c r="J361" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>73</v>
+      </c>
+      <c r="B362" t="s">
+        <v>179</v>
+      </c>
+      <c r="C362" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D362">
+        <v>15</v>
+      </c>
+      <c r="E362" t="s">
+        <v>6</v>
+      </c>
+      <c r="F362">
+        <v>73</v>
+      </c>
+      <c r="G362">
+        <v>4</v>
+      </c>
+      <c r="H362" t="s">
+        <v>79</v>
+      </c>
+      <c r="I362">
+        <v>4</v>
+      </c>
+      <c r="J362" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>74</v>
+      </c>
+      <c r="B363" t="s">
+        <v>180</v>
+      </c>
+      <c r="C363" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D363">
+        <v>15</v>
+      </c>
+      <c r="E363" t="s">
+        <v>6</v>
+      </c>
+      <c r="F363">
+        <v>74</v>
+      </c>
+      <c r="G363">
+        <v>4</v>
+      </c>
+      <c r="H363" t="s">
+        <v>80</v>
+      </c>
+      <c r="I363">
+        <v>4</v>
+      </c>
+      <c r="J363" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>75</v>
+      </c>
+      <c r="B364" t="s">
+        <v>181</v>
+      </c>
+      <c r="C364" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D364">
+        <v>15</v>
+      </c>
+      <c r="E364" t="s">
+        <v>6</v>
+      </c>
+      <c r="F364">
+        <v>75</v>
+      </c>
+      <c r="G364">
+        <v>4</v>
+      </c>
+      <c r="H364" t="s">
+        <v>81</v>
+      </c>
+      <c r="I364">
+        <v>4</v>
+      </c>
+      <c r="J364" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>76</v>
+      </c>
+      <c r="B365" t="s">
+        <v>182</v>
+      </c>
+      <c r="C365" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D365">
+        <v>15</v>
+      </c>
+      <c r="E365" t="s">
+        <v>6</v>
+      </c>
+      <c r="F365">
+        <v>76</v>
+      </c>
+      <c r="G365">
+        <v>4</v>
+      </c>
+      <c r="H365" t="s">
+        <v>82</v>
+      </c>
+      <c r="I365">
+        <v>4</v>
+      </c>
+      <c r="J365" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>77</v>
+      </c>
+      <c r="B366" t="s">
+        <v>183</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D366">
+        <v>15</v>
+      </c>
+      <c r="E366" t="s">
+        <v>6</v>
+      </c>
+      <c r="F366">
+        <v>77</v>
+      </c>
+      <c r="G366">
+        <v>4</v>
+      </c>
+      <c r="H366" t="s">
+        <v>83</v>
+      </c>
+      <c r="I366">
+        <v>4</v>
+      </c>
+      <c r="J366" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>78</v>
+      </c>
+      <c r="B367" t="s">
+        <v>184</v>
+      </c>
+      <c r="C367" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D367">
+        <v>15</v>
+      </c>
+      <c r="E367" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367">
+        <v>78</v>
+      </c>
+      <c r="G367">
+        <v>4</v>
+      </c>
+      <c r="H367" t="s">
+        <v>84</v>
+      </c>
+      <c r="I367">
+        <v>4</v>
+      </c>
+      <c r="J367" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>79</v>
+      </c>
+      <c r="B368" t="s">
+        <v>185</v>
+      </c>
+      <c r="C368" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D368">
+        <v>15</v>
+      </c>
+      <c r="E368" t="s">
+        <v>6</v>
+      </c>
+      <c r="F368">
+        <v>79</v>
+      </c>
+      <c r="G368">
+        <v>4</v>
+      </c>
+      <c r="H368" t="s">
+        <v>85</v>
+      </c>
+      <c r="I368">
+        <v>4</v>
+      </c>
+      <c r="J368" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>80</v>
+      </c>
+      <c r="B369" t="s">
+        <v>186</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D369">
+        <v>15</v>
+      </c>
+      <c r="E369" t="s">
+        <v>6</v>
+      </c>
+      <c r="F369">
+        <v>80</v>
+      </c>
+      <c r="G369">
+        <v>4</v>
+      </c>
+      <c r="H369" t="s">
+        <v>86</v>
+      </c>
+      <c r="I369">
+        <v>4</v>
+      </c>
+      <c r="J369" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>81</v>
+      </c>
+      <c r="B370" t="s">
+        <v>187</v>
+      </c>
+      <c r="C370" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D370">
+        <v>15</v>
+      </c>
+      <c r="E370" t="s">
+        <v>6</v>
+      </c>
+      <c r="F370">
+        <v>81</v>
+      </c>
+      <c r="G370">
+        <v>4</v>
+      </c>
+      <c r="H370" t="s">
+        <v>87</v>
+      </c>
+      <c r="I370">
+        <v>4</v>
+      </c>
+      <c r="J370" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>82</v>
+      </c>
+      <c r="B371" t="s">
+        <v>188</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D371">
+        <v>15</v>
+      </c>
+      <c r="E371" t="s">
+        <v>6</v>
+      </c>
+      <c r="F371">
+        <v>82</v>
+      </c>
+      <c r="G371">
+        <v>4</v>
+      </c>
+      <c r="H371" t="s">
+        <v>88</v>
+      </c>
+      <c r="I371">
+        <v>4</v>
+      </c>
+      <c r="J371" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>83</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D372">
+        <v>15</v>
+      </c>
+      <c r="E372" t="s">
+        <v>6</v>
+      </c>
+      <c r="F372">
+        <v>83</v>
+      </c>
+      <c r="G372">
+        <v>4</v>
+      </c>
+      <c r="H372" t="s">
+        <v>89</v>
+      </c>
+      <c r="I372">
+        <v>4</v>
+      </c>
+      <c r="J372" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>84</v>
+      </c>
+      <c r="B373" t="s">
+        <v>190</v>
+      </c>
+      <c r="C373" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D373">
+        <v>15</v>
+      </c>
+      <c r="E373" t="s">
+        <v>6</v>
+      </c>
+      <c r="F373">
+        <v>84</v>
+      </c>
+      <c r="G373">
+        <v>4</v>
+      </c>
+      <c r="H373" t="s">
+        <v>90</v>
+      </c>
+      <c r="I373">
+        <v>4</v>
+      </c>
+      <c r="J373" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>85</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D374">
+        <v>15</v>
+      </c>
+      <c r="E374" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374">
+        <v>85</v>
+      </c>
+      <c r="G374">
+        <v>4</v>
+      </c>
+      <c r="H374" t="s">
+        <v>91</v>
+      </c>
+      <c r="I374">
+        <v>4</v>
+      </c>
+      <c r="J374" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>86</v>
+      </c>
+      <c r="B375" t="s">
+        <v>192</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D375">
+        <v>15</v>
+      </c>
+      <c r="E375" t="s">
+        <v>6</v>
+      </c>
+      <c r="F375">
+        <v>86</v>
+      </c>
+      <c r="G375">
+        <v>4</v>
+      </c>
+      <c r="H375" t="s">
+        <v>92</v>
+      </c>
+      <c r="I375">
+        <v>4</v>
+      </c>
+      <c r="J375" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>87</v>
+      </c>
+      <c r="B376" t="s">
+        <v>193</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D376">
+        <v>15</v>
+      </c>
+      <c r="E376" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376">
+        <v>87</v>
+      </c>
+      <c r="G376">
+        <v>4</v>
+      </c>
+      <c r="H376" t="s">
+        <v>93</v>
+      </c>
+      <c r="I376">
+        <v>4</v>
+      </c>
+      <c r="J376" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>88</v>
+      </c>
+      <c r="B377" t="s">
+        <v>194</v>
+      </c>
+      <c r="C377" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D377">
+        <v>15</v>
+      </c>
+      <c r="E377" t="s">
+        <v>6</v>
+      </c>
+      <c r="F377">
+        <v>88</v>
+      </c>
+      <c r="G377">
+        <v>4</v>
+      </c>
+      <c r="H377" t="s">
+        <v>94</v>
+      </c>
+      <c r="I377">
+        <v>4</v>
+      </c>
+      <c r="J377" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>89</v>
+      </c>
+      <c r="B378" t="s">
+        <v>195</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D378">
+        <v>15</v>
+      </c>
+      <c r="E378" t="s">
+        <v>6</v>
+      </c>
+      <c r="F378">
+        <v>89</v>
+      </c>
+      <c r="G378">
+        <v>4</v>
+      </c>
+      <c r="H378" t="s">
+        <v>95</v>
+      </c>
+      <c r="I378">
+        <v>4</v>
+      </c>
+      <c r="J378" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>90</v>
+      </c>
+      <c r="B379" t="s">
+        <v>196</v>
+      </c>
+      <c r="C379" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D379">
+        <v>15</v>
+      </c>
+      <c r="E379" t="s">
+        <v>6</v>
+      </c>
+      <c r="F379">
+        <v>90</v>
+      </c>
+      <c r="G379">
+        <v>4</v>
+      </c>
+      <c r="H379" t="s">
+        <v>96</v>
+      </c>
+      <c r="I379">
+        <v>4</v>
+      </c>
+      <c r="J379" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>91</v>
+      </c>
+      <c r="B380" t="s">
+        <v>197</v>
+      </c>
+      <c r="C380" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D380">
+        <v>15</v>
+      </c>
+      <c r="E380" t="s">
+        <v>6</v>
+      </c>
+      <c r="F380">
+        <v>91</v>
+      </c>
+      <c r="G380">
+        <v>4</v>
+      </c>
+      <c r="H380" t="s">
+        <v>97</v>
+      </c>
+      <c r="I380">
+        <v>4</v>
+      </c>
+      <c r="J380" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>92</v>
+      </c>
+      <c r="B381" t="s">
+        <v>198</v>
+      </c>
+      <c r="C381" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D381">
+        <v>15</v>
+      </c>
+      <c r="E381" t="s">
+        <v>6</v>
+      </c>
+      <c r="F381">
+        <v>92</v>
+      </c>
+      <c r="G381">
+        <v>4</v>
+      </c>
+      <c r="H381" t="s">
+        <v>98</v>
+      </c>
+      <c r="I381">
+        <v>4</v>
+      </c>
+      <c r="J381" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>93</v>
+      </c>
+      <c r="B382" t="s">
+        <v>99</v>
+      </c>
+      <c r="C382" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D382">
+        <v>15</v>
+      </c>
+      <c r="E382" t="s">
+        <v>6</v>
+      </c>
+      <c r="F382">
+        <v>93</v>
+      </c>
+      <c r="G382">
+        <v>4</v>
+      </c>
+      <c r="H382" t="s">
+        <v>100</v>
+      </c>
+      <c r="I382">
+        <v>4</v>
+      </c>
+      <c r="J382" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>94</v>
+      </c>
+      <c r="B383" t="s">
+        <v>101</v>
+      </c>
+      <c r="C383" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D383">
+        <v>15</v>
+      </c>
+      <c r="E383" t="s">
+        <v>6</v>
+      </c>
+      <c r="F383">
+        <v>94</v>
+      </c>
+      <c r="G383">
+        <v>4</v>
+      </c>
+      <c r="H383" t="s">
+        <v>102</v>
+      </c>
+      <c r="I383">
+        <v>4</v>
+      </c>
+      <c r="J383" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>95</v>
+      </c>
+      <c r="B384" t="s">
+        <v>103</v>
+      </c>
+      <c r="C384" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D384">
+        <v>15</v>
+      </c>
+      <c r="E384" t="s">
+        <v>6</v>
+      </c>
+      <c r="F384">
+        <v>95</v>
+      </c>
+      <c r="G384">
+        <v>4</v>
+      </c>
+      <c r="H384" t="s">
+        <v>104</v>
+      </c>
+      <c r="I384">
+        <v>4</v>
+      </c>
+      <c r="J384" s="22">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>96</v>
+      </c>
+      <c r="B385" t="s">
+        <v>105</v>
+      </c>
+      <c r="C385" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D385">
+        <v>15</v>
+      </c>
+      <c r="E385" t="s">
+        <v>6</v>
+      </c>
+      <c r="F385">
+        <v>96</v>
+      </c>
+      <c r="G385">
+        <v>4</v>
+      </c>
+      <c r="H385" t="s">
+        <v>106</v>
+      </c>
+      <c r="I385">
+        <v>4</v>
+      </c>
+      <c r="J385" s="22">
+        <v>44339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
